--- a/PCSAutmation Ativity Traker.xlsx
+++ b/PCSAutmation Ativity Traker.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE35B87F-F1F8-477E-B0AB-4C37B2AD7E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>SL.NO</t>
   </si>
@@ -49,12 +50,75 @@
   </si>
   <si>
     <t>Date line</t>
+  </si>
+  <si>
+    <t>27_NOV</t>
+  </si>
+  <si>
+    <t>11.50Am</t>
+  </si>
+  <si>
+    <t>8.11Pm</t>
+  </si>
+  <si>
+    <t>12.30Pm</t>
+  </si>
+  <si>
+    <t>9.30Pm</t>
+  </si>
+  <si>
+    <t>11.30Am</t>
+  </si>
+  <si>
+    <t>Java coding</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>coding for modal</t>
+  </si>
+  <si>
+    <t>coding for controller</t>
+  </si>
+  <si>
+    <t>Database Creation</t>
+  </si>
+  <si>
+    <t>coding foe dao</t>
+  </si>
+  <si>
+    <t>coding for daolmpl</t>
+  </si>
+  <si>
+    <t>coding for Entity</t>
+  </si>
+  <si>
+    <t>coding for view</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Employee Error</t>
+  </si>
+  <si>
+    <t>daolmpl Error</t>
+  </si>
+  <si>
+    <t>Spelling mistake</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>Finished</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,8 +148,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,18 +430,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
   </cols>
@@ -413,6 +479,230 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44158</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1">
+        <v>44160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1">
+        <v>44163</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PCSAutmation Ativity Traker.xlsx
+++ b/PCSAutmation Ativity Traker.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE35B87F-F1F8-477E-B0AB-4C37B2AD7E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DC1F1A-16C7-4E10-A5E8-6432FD343B8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>SL.NO</t>
   </si>
@@ -113,6 +113,33 @@
   </si>
   <si>
     <t>Finished</t>
+  </si>
+  <si>
+    <t>7.30pm</t>
+  </si>
+  <si>
+    <t>Employee value creation</t>
+  </si>
+  <si>
+    <t>12.30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coding view pakage </t>
+  </si>
+  <si>
+    <t>HRA stap miss</t>
+  </si>
+  <si>
+    <t>HRA step miss</t>
+  </si>
+  <si>
+    <t>8.30pm</t>
+  </si>
+  <si>
+    <t>coding view package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documation </t>
   </si>
 </sst>
 </file>
@@ -431,16 +458,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.21875" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" customWidth="1"/>
@@ -703,6 +730,128 @@
         <v>44163</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44167</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44170</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1">
+        <v>44170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1">
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1">
+        <v>44173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
